--- a/Pick 6 Lottery System 20 numbers.xlsx
+++ b/Pick 6 Lottery System 20 numbers.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcosi\Source\Repos\Lottery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F27CDD4-6311-463B-8763-7457089BCF32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DC75FAB7-357A-491B-85B5-EF72C4396F33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="1905" xr2:uid="{926ADC1F-4B96-4D29-BF4B-9717F0DB8E56}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{926ADC1F-4B96-4D29-BF4B-9717F0DB8E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Play16Games" sheetId="1" r:id="rId1"/>
     <sheet name="Best20" sheetId="2" r:id="rId2"/>
-    <sheet name="DropSortHere" sheetId="5" r:id="rId3"/>
+    <sheet name="DropSortHere" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,14 +209,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,65 +224,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D110-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>4762</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5122" name="Control 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5122"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002140000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,104 +528,104 @@
   </sheetPr>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5">
         <f>Best20!A21</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5">
         <f>Best20!A2</f>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D1" s="5">
         <f>Best20!A3</f>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5">
         <f>Best20!A4</f>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5">
         <f>Best20!A5</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5">
         <f>Best20!A20</f>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H1" s="5">
         <f>Best20!A6</f>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I1" s="5">
         <f>Best20!A7</f>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J1" s="5">
         <f>Best20!A8</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K1" s="5">
         <f>Best20!A9</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L1" s="5">
         <f>Best20!A10</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="5">
         <f>Best20!A11</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N1" s="5">
         <f>Best20!A12</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O1" s="5">
         <f>Best20!A13</f>
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="P1" s="5">
         <f>Best20!A19</f>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="5">
         <f>Best20!A14</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R1" s="5">
         <f>Best20!A15</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S1" s="5">
         <f>Best20!A16</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T1" s="5">
         <f>Best20!A18</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="U1" s="5">
         <f>Best20!A17</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -716,24 +649,24 @@
       <c r="U2" s="5"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="5">
         <f>$B$1</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
         <f>$C$1</f>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>$G$1</f>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -741,19 +674,19 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5">
         <f>$L$1</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5">
         <f>$N$1</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5">
         <f>$R$1</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -763,18 +696,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5">
         <f>$B$1</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
         <f>$D$1</f>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -784,7 +717,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5">
         <f>$K$1</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -793,52 +726,52 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5">
         <f>$Q$1</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5">
         <f>$S$1</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5">
         <f>$U$1</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V4" s="6">
         <f>COUNTIF(B4:U4,"&gt;0")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="5">
         <f>$B$1</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
         <f>$E$1</f>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5">
         <f>$H$1</f>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5">
         <f>$I$1</f>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5">
         <f>$L$1</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -849,7 +782,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5">
         <f>$T$1</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="6">
@@ -857,42 +790,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5">
         <f>$B$1</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
         <f>$F$1</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5">
         <f>$J$1</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5">
         <f>$M$1</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5">
         <f>$O$1</f>
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="P6" s="5">
         <f>$P$1</f>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -904,18 +837,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
         <f>$C$1</f>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5">
         <f>$D$1</f>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -928,22 +861,22 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5">
         <f>$N$1</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5">
         <f>$P$1</f>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5">
         <f>$S$1</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T7" s="5">
         <f>$T$1</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="6">
@@ -951,41 +884,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
         <f>$C$1</f>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
         <f>$E$1</f>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5">
         <f>$H$1</f>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5">
         <f>$J$1</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5">
         <f>$N$1</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O8" s="5">
         <f>$O$1</f>
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -998,41 +931,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5">
         <f>$C$1</f>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
         <f>$F$1</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
         <f>$H$1</f>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5">
         <f>$I$1</f>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5">
         <f>$K$1</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5">
         <f>$O$1</f>
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -1045,14 +978,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
         <f>$C$1</f>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1061,38 +994,38 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5">
         <f>$I$1</f>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J10" s="5">
         <f>$J$1</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5">
         <f>$M$1</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5">
         <f>$Q$1</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5">
         <f>$U$1</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1100,26 +1033,26 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5">
         <f>$D$1</f>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5">
         <f>$E$1</f>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
         <f>$G$1</f>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
         <f>$I$1</f>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5">
         <f>$K$1</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1127,7 +1060,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5">
         <f>$P$1</f>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -1139,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1147,12 +1080,12 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5">
         <f>$D$1</f>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
         <f>$F$1</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1161,23 +1094,23 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5">
         <f>$L$1</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5">
         <f>$O$1</f>
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5">
         <f>$R$1</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S12" s="5">
         <f>$S$1</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -1186,7 +1119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1194,28 +1127,28 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5">
         <f>$D$1</f>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
         <f>$G$1</f>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5">
         <f>$H$1</f>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5">
         <f>$J$1</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5">
         <f>$M$1</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1224,7 +1157,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5">
         <f>$S$1</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -1233,7 +1166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1242,11 +1175,11 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5">
         <f>$E$1</f>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F14" s="5">
         <f>$F$1</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1254,16 +1187,16 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5">
         <f>$K$1</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5">
         <f>$M$1</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N14" s="5">
         <f>$N$1</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1273,14 +1206,14 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5">
         <f>$U$1</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V14" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1289,14 +1222,14 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5">
         <f>$E$1</f>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
         <f>$I$1</f>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1304,21 +1237,21 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5">
         <f>$N$1</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5">
         <f>$Q$1</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R15" s="5">
         <f>$R$1</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S15" s="5">
         <f>$S$1</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -1327,7 +1260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1337,11 +1270,11 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5">
         <f>$F$1</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G16" s="5">
         <f>$G$1</f>
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1352,29 +1285,29 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5">
         <f>$O$1</f>
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5">
         <f>$Q$1</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5">
         <f>$T$1</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="U16" s="5">
         <f>$U$1</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1386,42 +1319,42 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5">
         <f>$H$1</f>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5">
         <f>$L$1</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5">
         <f>$P$1</f>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="5">
         <f>$Q$1</f>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="R17" s="5">
         <f>$R$1</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5">
         <f>$U$1</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1435,19 +1368,19 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5">
         <f>$J$1</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="K18" s="5">
         <f>$K$1</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L18" s="5">
         <f>$L$1</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M18" s="5">
         <f>$M$1</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -1455,12 +1388,12 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5">
         <f>$R$1</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5">
         <f>$T$1</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="6">
@@ -1468,7 +1401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1492,7 +1425,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1578,7 +1511,7 @@
       </c>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1627,9 +1560,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1652,32 +1585,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D2" s="4">
-        <v>43421</v>
+        <v>43652</v>
       </c>
       <c r="E2" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>14</v>
@@ -1686,21 +1619,21 @@
         <v>179</v>
       </c>
       <c r="D3" s="4">
-        <v>43428</v>
+        <v>43649</v>
       </c>
       <c r="E3" s="3">
         <v>19</v>
       </c>
       <c r="F3" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>43449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>13</v>
@@ -1709,21 +1642,21 @@
         <v>166</v>
       </c>
       <c r="D4" s="4">
-        <v>43414</v>
+        <v>43659</v>
       </c>
       <c r="E4" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>13</v>
@@ -1732,21 +1665,21 @@
         <v>166</v>
       </c>
       <c r="D5" s="4">
-        <v>43425</v>
+        <v>43659</v>
       </c>
       <c r="E5" s="3">
         <v>19</v>
       </c>
       <c r="F5" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3">
         <v>13</v>
@@ -1755,21 +1688,21 @@
         <v>166</v>
       </c>
       <c r="D6" s="4">
-        <v>43432</v>
+        <v>43628</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4">
-        <v>43453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3">
         <v>13</v>
@@ -1778,44 +1711,44 @@
         <v>166</v>
       </c>
       <c r="D7" s="4">
-        <v>43432</v>
+        <v>43635</v>
       </c>
       <c r="E7" s="3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>153</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43656</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3">
         <v>7</v>
       </c>
-      <c r="G7" s="4">
-        <v>43453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <v>166</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43435</v>
-      </c>
-      <c r="E8" s="3">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4</v>
-      </c>
       <c r="G8" s="4">
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3">
         <v>12</v>
@@ -1824,21 +1757,21 @@
         <v>153</v>
       </c>
       <c r="D9" s="4">
-        <v>43400</v>
+        <v>43638</v>
       </c>
       <c r="E9" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>12</v>
@@ -1847,21 +1780,21 @@
         <v>153</v>
       </c>
       <c r="D10" s="4">
-        <v>43418</v>
+        <v>43621</v>
       </c>
       <c r="E10" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3">
         <v>12</v>
@@ -1870,278 +1803,268 @@
         <v>153</v>
       </c>
       <c r="D11" s="4">
-        <v>43421</v>
+        <v>43631</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
       </c>
       <c r="F11" s="3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G11" s="4">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>141</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43628</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>128</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43614</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3">
+        <v>49</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>128</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43638</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
-        <v>153</v>
-      </c>
-      <c r="D12" s="4">
-        <v>43432</v>
-      </c>
-      <c r="E12" s="3">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>115</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43628</v>
+      </c>
+      <c r="E15" s="3">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>115</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43603</v>
+      </c>
+      <c r="E16" s="3">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>115</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43628</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>115</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43621</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>115</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43558</v>
+      </c>
+      <c r="E19" s="3">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3">
+        <v>105</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>102</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3">
+        <v>63</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
         <v>7</v>
       </c>
-      <c r="G12" s="4">
-        <v>43453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>153</v>
-      </c>
-      <c r="D13" s="4">
-        <v>43435</v>
-      </c>
-      <c r="E13" s="3">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4">
-        <v>43460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>141</v>
-      </c>
-      <c r="D14" s="4">
-        <v>43425</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3">
-        <v>14</v>
-      </c>
-      <c r="G14" s="4">
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>141</v>
-      </c>
-      <c r="D15" s="4">
-        <v>43435</v>
-      </c>
-      <c r="E15" s="3">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="4">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>141</v>
-      </c>
-      <c r="D16" s="4">
-        <v>43435</v>
-      </c>
-      <c r="E16" s="3">
-        <v>26</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="4">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3">
-        <v>128</v>
-      </c>
-      <c r="D17" s="4">
-        <v>43383</v>
-      </c>
-      <c r="E17" s="3">
-        <v>19</v>
-      </c>
-      <c r="F17" s="3">
-        <v>56</v>
-      </c>
-      <c r="G17" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3">
-        <v>128</v>
-      </c>
-      <c r="D18" s="4">
-        <v>43411</v>
-      </c>
-      <c r="E18" s="3">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3">
-        <v>28</v>
-      </c>
-      <c r="G18" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3">
-        <v>128</v>
-      </c>
-      <c r="D19" s="4">
-        <v>43428</v>
-      </c>
-      <c r="E19" s="3">
-        <v>29</v>
-      </c>
-      <c r="F19" s="3">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4">
-        <v>43460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="3">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3">
-        <v>128</v>
-      </c>
-      <c r="D20" s="4">
-        <v>43435</v>
-      </c>
-      <c r="E20" s="3">
-        <v>23</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4">
-        <v>43460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="3">
-        <v>42</v>
-      </c>
-      <c r="B21" s="3">
-        <v>9</v>
-      </c>
       <c r="C21" s="3">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D21" s="4">
-        <v>43379</v>
+        <v>43624</v>
       </c>
       <c r="E21" s="3">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G21" s="4">
-        <v>43439</v>
+        <v>43663</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:G21">
-    <sortCondition descending="1" ref="C2:C21"/>
-    <sortCondition descending="1" ref="F2:F21"/>
+    <sortCondition descending="1" ref="B2:B21"/>
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC34B369-7543-40DC-B0AA-E56D89EF48C2}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CDC877-1210-4097-B4DE-9B422F3F61A3}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2164,55 +2087,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
+        <v>192</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43652</v>
+      </c>
+      <c r="E2" s="3">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3">
         <v>14</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
         <v>179</v>
       </c>
-      <c r="D2" s="4">
-        <v>43421</v>
-      </c>
-      <c r="E2" s="3">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
-        <v>52</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="D3" s="4">
+        <v>43649</v>
+      </c>
+      <c r="E3" s="3">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3">
         <v>14</v>
       </c>
-      <c r="C3" s="8">
-        <v>179</v>
-      </c>
-      <c r="D3" s="10">
-        <v>43428</v>
-      </c>
-      <c r="E3" s="8">
-        <v>19</v>
-      </c>
-      <c r="F3" s="8">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10">
-        <v>43449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G3" s="4">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3">
         <v>13</v>
@@ -2221,21 +2144,21 @@
         <v>166</v>
       </c>
       <c r="D4" s="4">
-        <v>43414</v>
+        <v>43628</v>
       </c>
       <c r="E4" s="3">
         <v>19</v>
       </c>
       <c r="F4" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3">
         <v>13</v>
@@ -2244,21 +2167,21 @@
         <v>166</v>
       </c>
       <c r="D5" s="4">
-        <v>43425</v>
+        <v>43635</v>
       </c>
       <c r="E5" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4">
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>13</v>
@@ -2267,21 +2190,21 @@
         <v>166</v>
       </c>
       <c r="D6" s="4">
-        <v>43432</v>
+        <v>43659</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4">
-        <v>43453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>13</v>
@@ -2290,44 +2213,44 @@
         <v>166</v>
       </c>
       <c r="D7" s="4">
-        <v>43432</v>
+        <v>43659</v>
       </c>
       <c r="E7" s="3">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>153</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43638</v>
+      </c>
+      <c r="E8" s="3">
         <v>21</v>
       </c>
-      <c r="F7" s="3">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4">
-        <v>43453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="8">
-        <v>45</v>
-      </c>
-      <c r="B8" s="8">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8">
-        <v>166</v>
-      </c>
-      <c r="D8" s="10">
-        <v>43435</v>
-      </c>
-      <c r="E8" s="8">
-        <v>21</v>
-      </c>
-      <c r="F8" s="8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10">
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F8" s="3">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>12</v>
@@ -2336,21 +2259,21 @@
         <v>153</v>
       </c>
       <c r="D9" s="4">
-        <v>43400</v>
+        <v>43621</v>
       </c>
       <c r="E9" s="3">
         <v>20</v>
       </c>
       <c r="F9" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3">
         <v>12</v>
@@ -2359,21 +2282,21 @@
         <v>153</v>
       </c>
       <c r="D10" s="4">
-        <v>43418</v>
+        <v>43631</v>
       </c>
       <c r="E10" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>12</v>
@@ -2382,1043 +2305,644 @@
         <v>153</v>
       </c>
       <c r="D11" s="4">
-        <v>43421</v>
+        <v>43656</v>
       </c>
       <c r="E11" s="3">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>141</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43628</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>128</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43614</v>
+      </c>
+      <c r="E13" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="3">
-        <v>18</v>
-      </c>
-      <c r="G11" s="4">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="F13" s="3">
+        <v>49</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>128</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43638</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
-        <v>153</v>
-      </c>
-      <c r="D12" s="4">
-        <v>43432</v>
-      </c>
-      <c r="E12" s="3">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>115</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43628</v>
+      </c>
+      <c r="E15" s="3">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>115</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43603</v>
+      </c>
+      <c r="E16" s="3">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>115</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43628</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>115</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43621</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>115</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43558</v>
+      </c>
+      <c r="E19" s="3">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3">
+        <v>105</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>102</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3">
+        <v>63</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3">
         <v>7</v>
       </c>
-      <c r="G12" s="4">
-        <v>43453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="8">
-        <v>46</v>
-      </c>
-      <c r="B13" s="8">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8">
-        <v>153</v>
-      </c>
-      <c r="D13" s="10">
-        <v>43435</v>
-      </c>
-      <c r="E13" s="8">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10">
-        <v>43460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>141</v>
-      </c>
-      <c r="D14" s="4">
-        <v>43425</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3">
-        <v>14</v>
-      </c>
-      <c r="G14" s="4">
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>141</v>
-      </c>
-      <c r="D15" s="4">
-        <v>43435</v>
-      </c>
-      <c r="E15" s="3">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="4">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
+      <c r="C21" s="3">
+        <v>89</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43624</v>
+      </c>
+      <c r="E21" s="3">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3">
+        <v>39</v>
+      </c>
+      <c r="G21" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>89</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43621</v>
+      </c>
+      <c r="E22" s="3">
         <v>30</v>
       </c>
-      <c r="B16" s="3">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>141</v>
-      </c>
-      <c r="D16" s="4">
-        <v>43435</v>
-      </c>
-      <c r="E16" s="3">
-        <v>26</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="4">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="3">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3">
-        <v>128</v>
-      </c>
-      <c r="D17" s="4">
-        <v>43383</v>
-      </c>
-      <c r="E17" s="3">
-        <v>19</v>
-      </c>
-      <c r="F17" s="3">
-        <v>56</v>
-      </c>
-      <c r="G17" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="3">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3">
-        <v>128</v>
-      </c>
-      <c r="D18" s="4">
-        <v>43411</v>
-      </c>
-      <c r="E18" s="3">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3">
-        <v>28</v>
-      </c>
-      <c r="G18" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="8">
-        <v>51</v>
-      </c>
-      <c r="B19" s="8">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8">
-        <v>128</v>
-      </c>
-      <c r="D19" s="10">
-        <v>43428</v>
-      </c>
-      <c r="E19" s="8">
-        <v>29</v>
-      </c>
-      <c r="F19" s="8">
-        <v>11</v>
-      </c>
-      <c r="G19" s="10">
-        <v>43460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="3">
-        <v>44</v>
-      </c>
-      <c r="B20" s="3">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3">
-        <v>128</v>
-      </c>
-      <c r="D20" s="4">
-        <v>43435</v>
-      </c>
-      <c r="E20" s="3">
-        <v>23</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4">
-        <v>43460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="3">
+      <c r="F22" s="3">
         <v>42</v>
       </c>
-      <c r="B21" s="3">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>115</v>
-      </c>
-      <c r="D21" s="4">
-        <v>43379</v>
-      </c>
-      <c r="E21" s="3">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3">
-        <v>60</v>
-      </c>
-      <c r="G21" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="8">
-        <v>47</v>
-      </c>
-      <c r="B22" s="8">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8">
-        <v>115</v>
-      </c>
-      <c r="D22" s="10">
-        <v>43379</v>
-      </c>
-      <c r="E22" s="8">
-        <v>26</v>
-      </c>
-      <c r="F22" s="8">
-        <v>60</v>
-      </c>
-      <c r="G22" s="10">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G22" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D23" s="4">
-        <v>43400</v>
+        <v>43624</v>
       </c>
       <c r="E23" s="3">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F23" s="3">
         <v>39</v>
       </c>
       <c r="G23" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43638</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3">
+        <v>25</v>
+      </c>
+      <c r="G24" s="4">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43635</v>
+      </c>
+      <c r="E25" s="3">
+        <v>40</v>
+      </c>
+      <c r="F25" s="3">
+        <v>28</v>
+      </c>
+      <c r="G25" s="4">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>89</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43638</v>
+      </c>
+      <c r="E26" s="3">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>89</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E27" s="3">
+        <v>36</v>
+      </c>
+      <c r="F27" s="3">
+        <v>18</v>
+      </c>
+      <c r="G27" s="4">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
+        <v>89</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43652</v>
+      </c>
+      <c r="E28" s="3">
+        <v>37</v>
+      </c>
+      <c r="F28" s="3">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E29" s="3">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>76</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43614</v>
+      </c>
+      <c r="E30" s="3">
+        <v>34</v>
+      </c>
+      <c r="F30" s="3">
+        <v>49</v>
+      </c>
+      <c r="G30" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>76</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43579</v>
+      </c>
+      <c r="E31" s="3">
+        <v>30</v>
+      </c>
+      <c r="F31" s="3">
+        <v>84</v>
+      </c>
+      <c r="G31" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4">
+        <v>43586</v>
+      </c>
+      <c r="E32" s="3">
+        <v>38</v>
+      </c>
+      <c r="F32" s="3">
+        <v>77</v>
+      </c>
+      <c r="G32" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3">
+        <v>64</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43631</v>
+      </c>
+      <c r="E33" s="3">
+        <v>47</v>
+      </c>
+      <c r="F33" s="3">
         <v>32</v>
       </c>
-      <c r="B24" s="3">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3">
-        <v>115</v>
-      </c>
-      <c r="D24" s="4">
-        <v>43418</v>
-      </c>
-      <c r="E24" s="3">
-        <v>25</v>
-      </c>
-      <c r="F24" s="3">
-        <v>21</v>
-      </c>
-      <c r="G24" s="4">
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="3">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3">
-        <v>115</v>
-      </c>
-      <c r="D25" s="4">
-        <v>43418</v>
-      </c>
-      <c r="E25" s="3">
-        <v>27</v>
-      </c>
-      <c r="F25" s="3">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4">
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="3">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3">
-        <v>102</v>
-      </c>
-      <c r="D26" s="4">
-        <v>43365</v>
-      </c>
-      <c r="E26" s="3">
-        <v>27</v>
-      </c>
-      <c r="F26" s="3">
-        <v>74</v>
-      </c>
-      <c r="G26" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="8">
-        <v>53</v>
-      </c>
-      <c r="B27" s="8">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8">
-        <v>102</v>
-      </c>
-      <c r="D27" s="10">
-        <v>43369</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="G33" s="4">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>17</v>
       </c>
-      <c r="F27" s="8">
-        <v>70</v>
-      </c>
-      <c r="G27" s="10">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3">
-        <v>102</v>
-      </c>
-      <c r="D28" s="4">
-        <v>43400</v>
-      </c>
-      <c r="E28" s="3">
-        <v>33</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>64</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E34" s="3">
+        <v>49</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>41</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>51</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43509</v>
+      </c>
+      <c r="E35" s="3">
         <v>39</v>
       </c>
-      <c r="G28" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="3">
+      <c r="F35" s="3">
+        <v>154</v>
+      </c>
+      <c r="G35" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>47</v>
+      </c>
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>51</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43614</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44</v>
+      </c>
+      <c r="F36" s="3">
+        <v>49</v>
+      </c>
+      <c r="G36" s="4">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>7</v>
       </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>102</v>
-      </c>
-      <c r="D29" s="4">
-        <v>43404</v>
-      </c>
-      <c r="E29" s="3">
-        <v>33</v>
-      </c>
-      <c r="F29" s="3">
-        <v>35</v>
-      </c>
-      <c r="G29" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="3">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>102</v>
-      </c>
-      <c r="D30" s="4">
-        <v>43418</v>
-      </c>
-      <c r="E30" s="3">
-        <v>36</v>
-      </c>
-      <c r="F30" s="3">
-        <v>21</v>
-      </c>
-      <c r="G30" s="4">
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="8">
-        <v>50</v>
-      </c>
-      <c r="B31" s="8">
-        <v>8</v>
-      </c>
-      <c r="C31" s="8">
-        <v>102</v>
-      </c>
-      <c r="D31" s="10">
-        <v>43425</v>
-      </c>
-      <c r="E31" s="8">
-        <v>37</v>
-      </c>
-      <c r="F31" s="8">
-        <v>14</v>
-      </c>
-      <c r="G31" s="10">
-        <v>43463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="8">
-        <v>48</v>
-      </c>
-      <c r="B32" s="8">
-        <v>8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>102</v>
-      </c>
-      <c r="D32" s="10">
-        <v>43432</v>
-      </c>
-      <c r="E32" s="8">
-        <v>34</v>
-      </c>
-      <c r="F32" s="8">
-        <v>7</v>
-      </c>
-      <c r="G32" s="10">
-        <v>43467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="3">
-        <v>5</v>
-      </c>
-      <c r="B33" s="3">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3">
-        <v>102</v>
-      </c>
-      <c r="D33" s="4">
-        <v>43432</v>
-      </c>
-      <c r="E33" s="3">
-        <v>36</v>
-      </c>
-      <c r="F33" s="3">
-        <v>7</v>
-      </c>
-      <c r="G33" s="4">
-        <v>43470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3">
-        <v>38</v>
-      </c>
-      <c r="B34" s="3">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3">
-        <v>89</v>
-      </c>
-      <c r="D34" s="4">
-        <v>43341</v>
-      </c>
-      <c r="E34" s="3">
-        <v>19</v>
-      </c>
-      <c r="F34" s="3">
-        <v>98</v>
-      </c>
-      <c r="G34" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="3">
-        <v>17</v>
-      </c>
-      <c r="B35" s="3">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3">
-        <v>89</v>
-      </c>
-      <c r="D35" s="4">
-        <v>43362</v>
-      </c>
-      <c r="E35" s="3">
-        <v>29</v>
-      </c>
-      <c r="F35" s="3">
-        <v>77</v>
-      </c>
-      <c r="G35" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="3">
-        <v>25</v>
-      </c>
-      <c r="B36" s="3">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3">
-        <v>89</v>
-      </c>
-      <c r="D36" s="4">
-        <v>43369</v>
-      </c>
-      <c r="E36" s="3">
-        <v>29</v>
-      </c>
-      <c r="F36" s="3">
-        <v>70</v>
-      </c>
-      <c r="G36" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="8">
-        <v>49</v>
-      </c>
-      <c r="B37" s="8">
-        <v>7</v>
-      </c>
-      <c r="C37" s="8">
-        <v>89</v>
-      </c>
-      <c r="D37" s="10">
-        <v>43372</v>
-      </c>
-      <c r="E37" s="8">
-        <v>34</v>
-      </c>
-      <c r="F37" s="8">
-        <v>67</v>
-      </c>
-      <c r="G37" s="10">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>51</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43635</v>
+      </c>
+      <c r="E37" s="3">
+        <v>78</v>
+      </c>
+      <c r="F37" s="3">
+        <v>28</v>
+      </c>
+      <c r="G37" s="4">
+        <v>43715</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38" s="3">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D38" s="4">
-        <v>43376</v>
+        <v>43659</v>
       </c>
       <c r="E38" s="3">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F38" s="3">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="G38" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="3">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3">
-        <v>89</v>
-      </c>
-      <c r="D39" s="4">
-        <v>43379</v>
-      </c>
-      <c r="E39" s="3">
-        <v>35</v>
-      </c>
-      <c r="F39" s="3">
-        <v>60</v>
-      </c>
-      <c r="G39" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="3">
-        <v>24</v>
-      </c>
-      <c r="B40" s="3">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3">
-        <v>89</v>
-      </c>
-      <c r="D40" s="4">
-        <v>43383</v>
-      </c>
-      <c r="E40" s="3">
-        <v>34</v>
-      </c>
-      <c r="F40" s="3">
-        <v>56</v>
-      </c>
-      <c r="G40" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3">
-        <v>89</v>
-      </c>
-      <c r="D41" s="4">
-        <v>43390</v>
-      </c>
-      <c r="E41" s="3">
-        <v>34</v>
-      </c>
-      <c r="F41" s="3">
-        <v>49</v>
-      </c>
-      <c r="G41" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="3">
-        <v>31</v>
-      </c>
-      <c r="B42" s="3">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3">
-        <v>89</v>
-      </c>
-      <c r="D42" s="4">
-        <v>43397</v>
-      </c>
-      <c r="E42" s="3">
-        <v>37</v>
-      </c>
-      <c r="F42" s="3">
-        <v>42</v>
-      </c>
-      <c r="G42" s="4">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3">
-        <v>7</v>
-      </c>
-      <c r="C43" s="3">
-        <v>89</v>
-      </c>
-      <c r="D43" s="4">
-        <v>43407</v>
-      </c>
-      <c r="E43" s="3">
-        <v>40</v>
-      </c>
-      <c r="F43" s="3">
-        <v>32</v>
-      </c>
-      <c r="G43" s="4">
-        <v>43449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="3">
-        <v>3</v>
-      </c>
-      <c r="B44" s="3">
-        <v>7</v>
-      </c>
-      <c r="C44" s="3">
-        <v>89</v>
-      </c>
-      <c r="D44" s="4">
-        <v>43418</v>
-      </c>
-      <c r="E44" s="3">
-        <v>36</v>
-      </c>
-      <c r="F44" s="3">
-        <v>21</v>
-      </c>
-      <c r="G44" s="4">
-        <v>43456</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="3">
-        <v>34</v>
-      </c>
-      <c r="B45" s="3">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3">
-        <v>89</v>
-      </c>
-      <c r="D45" s="4">
-        <v>43425</v>
-      </c>
-      <c r="E45" s="3">
-        <v>41</v>
-      </c>
-      <c r="F45" s="3">
-        <v>14</v>
-      </c>
-      <c r="G45" s="4">
-        <v>43467</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="9">
-        <v>8</v>
-      </c>
-      <c r="B46" s="9">
-        <v>6</v>
-      </c>
-      <c r="C46" s="9">
-        <v>76</v>
-      </c>
-      <c r="D46" s="11">
-        <v>43390</v>
-      </c>
-      <c r="E46" s="9">
-        <v>42</v>
-      </c>
-      <c r="F46" s="9">
-        <v>49</v>
-      </c>
-      <c r="G46" s="11">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="9">
-        <v>13</v>
-      </c>
-      <c r="B47" s="9">
-        <v>6</v>
-      </c>
-      <c r="C47" s="9">
-        <v>76</v>
-      </c>
-      <c r="D47" s="11">
-        <v>43393</v>
-      </c>
-      <c r="E47" s="9">
-        <v>37</v>
-      </c>
-      <c r="F47" s="9">
-        <v>46</v>
-      </c>
-      <c r="G47" s="11">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="9">
-        <v>18</v>
-      </c>
-      <c r="B48" s="9">
-        <v>6</v>
-      </c>
-      <c r="C48" s="9">
-        <v>76</v>
-      </c>
-      <c r="D48" s="11">
-        <v>43421</v>
-      </c>
-      <c r="E48" s="9">
-        <v>50</v>
-      </c>
-      <c r="F48" s="9">
-        <v>18</v>
-      </c>
-      <c r="G48" s="11">
-        <v>43474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="9">
-        <v>10</v>
-      </c>
-      <c r="B49" s="9">
-        <v>6</v>
-      </c>
-      <c r="C49" s="9">
-        <v>76</v>
-      </c>
-      <c r="D49" s="11">
-        <v>43428</v>
-      </c>
-      <c r="E49" s="9">
-        <v>46</v>
-      </c>
-      <c r="F49" s="9">
-        <v>11</v>
-      </c>
-      <c r="G49" s="11">
-        <v>43474</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="9">
-        <v>33</v>
-      </c>
-      <c r="B50" s="9">
-        <v>6</v>
-      </c>
-      <c r="C50" s="9">
-        <v>76</v>
-      </c>
-      <c r="D50" s="11">
-        <v>43428</v>
-      </c>
-      <c r="E50" s="9">
-        <v>48</v>
-      </c>
-      <c r="F50" s="9">
-        <v>11</v>
-      </c>
-      <c r="G50" s="11">
-        <v>43477</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="9">
-        <v>37</v>
-      </c>
-      <c r="B51" s="9">
-        <v>5</v>
-      </c>
-      <c r="C51" s="9">
-        <v>64</v>
-      </c>
-      <c r="D51" s="11">
-        <v>43376</v>
-      </c>
-      <c r="E51" s="9">
-        <v>37</v>
-      </c>
-      <c r="F51" s="9">
-        <v>63</v>
-      </c>
-      <c r="G51" s="11">
-        <v>43439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="9">
-        <v>2</v>
-      </c>
-      <c r="B52" s="9">
-        <v>5</v>
-      </c>
-      <c r="C52" s="9">
-        <v>64</v>
-      </c>
-      <c r="D52" s="11">
-        <v>43411</v>
-      </c>
-      <c r="E52" s="9">
-        <v>57</v>
-      </c>
-      <c r="F52" s="9">
-        <v>28</v>
-      </c>
-      <c r="G52" s="11">
-        <v>43470</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="9">
-        <v>39</v>
-      </c>
-      <c r="B53" s="9">
-        <v>5</v>
-      </c>
-      <c r="C53" s="9">
-        <v>64</v>
-      </c>
-      <c r="D53" s="11">
-        <v>43435</v>
-      </c>
-      <c r="E53" s="9">
-        <v>61</v>
-      </c>
-      <c r="F53" s="9">
-        <v>4</v>
-      </c>
-      <c r="G53" s="11">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="9">
-        <v>29</v>
-      </c>
-      <c r="B54" s="9">
-        <v>4</v>
-      </c>
-      <c r="C54" s="9">
-        <v>51</v>
-      </c>
-      <c r="D54" s="11">
-        <v>43397</v>
-      </c>
-      <c r="E54" s="9">
-        <v>70</v>
-      </c>
-      <c r="F54" s="9">
-        <v>42</v>
-      </c>
-      <c r="G54" s="11">
-        <v>43467</v>
+        <v>43719</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G54">
-    <sortCondition descending="1" ref="B2:B54"/>
-    <sortCondition descending="1" ref="F2:F54"/>
-    <sortCondition ref="G2:G54"/>
+  <sortState ref="A2:G38">
+    <sortCondition descending="1" ref="B2:B38"/>
+    <sortCondition ref="G2:G38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId4" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>4763</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5122" r:id="rId4" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>